--- a/pred_ohlcv/54_21/2020-01-19 KNC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 KNC ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>27103.21154834437</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>26791.21154834437</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>26791.21154834437</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>26992.21154834437</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>26988.71154834437</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>16363.60384834437</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>15237.26744834437</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>15824.44354834437</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>6111.883548344371</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>6218.381248344371</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>6218.381248344371</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>6167.54334834437</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>19401.76884825114</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>23936.56920692622</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>23935.70580692622</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>27667.50930692621</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>23838.84930692621</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>23904.84750692621</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>23716.84750692621</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>23716.84750692621</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>23716.84750692621</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>23366.48500692621</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>23239.27120692621</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>23026.81120692621</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>22590.39850692621</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>19999.13210692621</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>15032.56080692621</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>11432.56080692621</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>5432.560806926213</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>6332.599106926213</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>6332.599106926213</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>6332.599106926213</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>6482.644106926213</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>9442.779906926215</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>9990.079306926214</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>9864.789806926214</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>9796.585706926213</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>9692.631806926212</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>9816.438706926212</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>9738.446706926212</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>10061.45620692621</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>9707.441406926211</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-19 KNC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 KNC ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>27103.21154834437</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>26791.21154834437</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>26791.21154834437</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>26992.21154834437</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>26988.71154834437</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -678,7 +678,7 @@
         <v>15237.26744834437</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>15824.44354834437</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>6111.883548344371</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>6218.381248344371</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>6218.381248344371</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>6167.54334834437</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>19401.76884825114</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>23936.56920692622</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>23936.56920692622</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>23630.59200692622</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>23935.70580692622</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>23838.84930692621</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>27667.50930692621</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>23838.84930692621</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>23904.84750692621</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>23716.84750692621</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>23716.84750692621</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>23716.84750692621</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>23366.48500692621</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>23239.27120692621</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>22848.20160692621</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>21012.10610692621</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>9816.438706926212</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>9738.446706926212</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>10061.45620692621</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>9707.441406926211</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
